--- a/python/src/jobanalysis/test/indeed.xlsx
+++ b/python/src/jobanalysis/test/indeed.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="indeed_java1" sheetId="1" r:id="rId1"/>
     <sheet name="ontology_java1" sheetId="2" r:id="rId2"/>
     <sheet name="ideal_java1" sheetId="3" r:id="rId3"/>
+    <sheet name="onology_web1" sheetId="4" r:id="rId4"/>
+    <sheet name="indeed_web1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>rel</t>
   </si>
@@ -142,6 +144,78 @@
   </si>
   <si>
     <t>b9854e9c7270ab90</t>
+  </si>
+  <si>
+    <t>236a2aad02bf8a26</t>
+  </si>
+  <si>
+    <t>23cbb9fd51009d5a</t>
+  </si>
+  <si>
+    <t>c1a6c203519c58ea</t>
+  </si>
+  <si>
+    <t>81b94f62c4fa2928</t>
+  </si>
+  <si>
+    <t>0a3250b76b5bc30b</t>
+  </si>
+  <si>
+    <t>90b9ecb634a5c983</t>
+  </si>
+  <si>
+    <t>c895e4ccd739c76a</t>
+  </si>
+  <si>
+    <t>68c5bd3bcaa8b0cc</t>
+  </si>
+  <si>
+    <t>7c7cd739def69d00</t>
+  </si>
+  <si>
+    <t>5595c515655b1a45</t>
+  </si>
+  <si>
+    <t>ca009e77042ba078</t>
+  </si>
+  <si>
+    <t>ba318558628ee838</t>
+  </si>
+  <si>
+    <t>848d59be15804971</t>
+  </si>
+  <si>
+    <t>080788b93fe26944</t>
+  </si>
+  <si>
+    <t>cc0d3c6496362f82</t>
+  </si>
+  <si>
+    <t>60bb4f336d32f0cb</t>
+  </si>
+  <si>
+    <t>0a9ea16fa7af5094</t>
+  </si>
+  <si>
+    <t>1b674b1dbf50aa7a</t>
+  </si>
+  <si>
+    <t>17c04e6b20fdf297</t>
+  </si>
+  <si>
+    <t>071bebd9ae1b8fae</t>
+  </si>
+  <si>
+    <t>4d3f1e2d9b0b94c7</t>
+  </si>
+  <si>
+    <t>54010a1a9dd25f26</t>
+  </si>
+  <si>
+    <t>791d45b9b4fb37a5</t>
+  </si>
+  <si>
+    <t>5983185cfb01a15a</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1066,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C21"/>
     </sheetView>
   </sheetViews>
@@ -1938,4 +2012,982 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>2^C2-1</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>LOG(B2+1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2/E2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">2^C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">LOG(B3+1,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="2">D3/E3</f>
+        <v>1.8927892607143721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.2920296742201793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.7079696506417914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.0686215613240666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.31546487678572871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.4594316186372978</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2.0234537842252149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.5849625007211565</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.8368288369533895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.7004397181410922</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.8916670809912381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.8073549220576037</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3.9397430255579038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.9068905956085187</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.76787407442944644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>2^C17-D20</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.08746284125034</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.2232527105911299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.1699250014423122</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.71943739970439435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.2479275134435852</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.70622674009991471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.69413463947927745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.3923174227787607</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.22767024869695299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>SUM(F2:F22)</f>
+        <v>34.191526893412309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>2^C2-1</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>LOG(B2+1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2/E2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">2^C3-1</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">LOG(B3+1,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="2">D3/E3</f>
+        <v>4.4165082750002016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>3.0147359065137516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.1605584217036249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.35620718710802218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.2082541375001008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.30102999566398114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.4594316186372978</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.86719447895366342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.5849625007211565</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.8368288369533895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.7004397181410922</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.8916670809912381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.8073549220576037</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3.9397430255579038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.9068905956085187</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.76787407442944644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>2^C17-D20</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.08746284125034</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.2232527105911299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.1699250014423122</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.71943739970439435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.2479275134435852</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.70622674009991471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.69413463947927745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.3923174227787607</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.22767024869695299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>SUM(F2:F21)</f>
+        <v>34.914656492280336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>